--- a/data/trans_orig/P02E$contratada-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5360</v>
+        <v>5462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02731870174659465</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08277466421874391</v>
+        <v>0.08433983287459454</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5979</v>
+        <v>5430</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01046662525668699</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03537501212886619</v>
+        <v>0.03212710406154626</v>
       </c>
     </row>
     <row r="5">
@@ -806,19 +806,19 @@
         <v>60075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54263</v>
+        <v>55217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62922</v>
+        <v>62900</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9277082066401525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8379635793270547</v>
+        <v>0.8526877013894266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9716841082812717</v>
+        <v>0.9713441597699182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -827,19 +827,19 @@
         <v>97893</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91799</v>
+        <v>91475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102108</v>
+        <v>102118</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9389116163072948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8804631910782703</v>
+        <v>0.8773542963611076</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9793408407782473</v>
+        <v>0.9794339123388324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>146</v>
@@ -848,19 +848,19 @@
         <v>157967</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150132</v>
+        <v>149959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163645</v>
+        <v>163275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9346192494272419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8882606506767576</v>
+        <v>0.8872353514770391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9682128989404224</v>
+        <v>0.9660225754863165</v>
       </c>
     </row>
     <row r="6">
@@ -877,19 +877,19 @@
         <v>2912</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8466</v>
+        <v>7597</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04497309161325286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01468788378258363</v>
+        <v>0.01456117977197755</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1307381041116059</v>
+        <v>0.1173100906215178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -898,19 +898,19 @@
         <v>6369</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2154</v>
+        <v>2144</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12463</v>
+        <v>12787</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06108838369270524</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0206591592217526</v>
+        <v>0.02056608766116763</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1195368089217297</v>
+        <v>0.1226457036388925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -919,19 +919,19 @@
         <v>9281</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4109</v>
+        <v>4184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16602</v>
+        <v>17364</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05491412531607101</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02430920414212335</v>
+        <v>0.02475596761207841</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09822765164129307</v>
+        <v>0.1027367162742061</v>
       </c>
     </row>
     <row r="7">
@@ -1012,19 +1012,19 @@
         <v>4875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1611</v>
+        <v>1199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11829</v>
+        <v>12687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03533827958023211</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01168020362599152</v>
+        <v>0.008687943517589695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08574414540832714</v>
+        <v>0.09196583702646656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1033,19 +1033,19 @@
         <v>4875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1002</v>
+        <v>1184</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11598</v>
+        <v>12138</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02355402702489105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004840369300296609</v>
+        <v>0.005722108051632513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05603576663656876</v>
+        <v>0.05864200958182508</v>
       </c>
     </row>
     <row r="9">
@@ -1062,19 +1062,19 @@
         <v>64996</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59403</v>
+        <v>58925</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68032</v>
+        <v>67989</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9416777945652701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8606463904993987</v>
+        <v>0.8537263085764616</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.985664511737804</v>
+        <v>0.9850425537809954</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -1083,19 +1083,19 @@
         <v>111352</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100835</v>
+        <v>100650</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>119868</v>
+        <v>119720</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8071521859948033</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7309169330349979</v>
+        <v>0.7295739361141074</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8688764813858367</v>
+        <v>0.8678073252825802</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>170</v>
@@ -1104,19 +1104,19 @@
         <v>176348</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>163917</v>
+        <v>164649</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>184632</v>
+        <v>185052</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8520124272229056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7919555640316975</v>
+        <v>0.7954915321367969</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8920357831763999</v>
+        <v>0.8940677495571916</v>
       </c>
     </row>
     <row r="10">
@@ -1133,19 +1133,19 @@
         <v>4025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>989</v>
+        <v>1032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9618</v>
+        <v>10096</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0583222054347299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01433548826219602</v>
+        <v>0.01495744621900464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1393536095006034</v>
+        <v>0.1462736914235385</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1154,19 +1154,19 @@
         <v>19951</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12410</v>
+        <v>12716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29596</v>
+        <v>29031</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1446185140307182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08995459356966079</v>
+        <v>0.0921762898405252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2145340045598712</v>
+        <v>0.2104364138321472</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1175,19 +1175,19 @@
         <v>23977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16183</v>
+        <v>15907</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34557</v>
+        <v>34732</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1158412926388301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07818565146858539</v>
+        <v>0.07685337093842633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.166960818674315</v>
+        <v>0.1678070576327819</v>
       </c>
     </row>
     <row r="11">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6504</v>
+        <v>6247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01289102039424648</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0471471168777278</v>
+        <v>0.04528536077935575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6251</v>
+        <v>6252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008592253113373239</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03020088338698396</v>
+        <v>0.03020648670118066</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6518</v>
+        <v>7466</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02029368956560151</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06195954656772421</v>
+        <v>0.0709731511748936</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8183</v>
+        <v>7884</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01221101060327505</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04681071968450284</v>
+        <v>0.0450981047789188</v>
       </c>
     </row>
     <row r="13">
@@ -1334,19 +1334,19 @@
         <v>61622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54955</v>
+        <v>55456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65654</v>
+        <v>65841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8850200662446962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7892669001063791</v>
+        <v>0.796456224474631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9429276458103186</v>
+        <v>0.945610641062324</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -1355,19 +1355,19 @@
         <v>99188</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93136</v>
+        <v>93746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102420</v>
+        <v>103181</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9429344885252468</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8854030878308645</v>
+        <v>0.8911934384286077</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9736551997619908</v>
+        <v>0.9808879925057724</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -1376,19 +1376,19 @@
         <v>160809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151546</v>
+        <v>153209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166582</v>
+        <v>166768</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9198680234022291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8668787984677347</v>
+        <v>0.876392805995038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9528901789666204</v>
+        <v>0.9539542456334759</v>
       </c>
     </row>
     <row r="14">
@@ -1405,19 +1405,19 @@
         <v>6147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2227</v>
+        <v>2112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12392</v>
+        <v>12412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08828230748830332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03198793725962419</v>
+        <v>0.03032728827214369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1779723842743295</v>
+        <v>0.1782677182345293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1426,19 +1426,19 @@
         <v>3868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9626</v>
+        <v>8834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03677182190915169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009396612038590154</v>
+        <v>0.009411719301698637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09151218216222402</v>
+        <v>0.08398215746083058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1447,19 +1447,19 @@
         <v>10015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5147</v>
+        <v>5135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18597</v>
+        <v>17476</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05728769295290435</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02944214663358256</v>
+        <v>0.02937153182851229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1063819720256518</v>
+        <v>0.09996493424666401</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6491</v>
+        <v>6441</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02669762626700042</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09322886271632266</v>
+        <v>0.09251138780945019</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6550</v>
+        <v>6445</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01063327304159157</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03746750662466416</v>
+        <v>0.03686492685773739</v>
       </c>
     </row>
     <row r="16">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4330</v>
+        <v>5945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0121928851252928</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05062420702329089</v>
+        <v>0.06950958517869722</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5235</v>
+        <v>5511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00515543141937584</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02588178792235983</v>
+        <v>0.02724549155194174</v>
       </c>
     </row>
     <row r="17">
@@ -1606,19 +1606,19 @@
         <v>75935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68566</v>
+        <v>68753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80636</v>
+        <v>80793</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8878541231286149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8016946824608442</v>
+        <v>0.8038822308254083</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9428220209663023</v>
+        <v>0.9446654279262314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>108</v>
@@ -1627,19 +1627,19 @@
         <v>104587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96075</v>
+        <v>96423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>109983</v>
+        <v>110062</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8958376650002402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.822923112156709</v>
+        <v>0.8259070825891641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9420564560576772</v>
+        <v>0.9427306114042773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>182</v>
@@ -1648,19 +1648,19 @@
         <v>180522</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170363</v>
+        <v>170265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188420</v>
+        <v>187665</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8924620404306705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8422391999797519</v>
+        <v>0.8417566729229246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.931510201683011</v>
+        <v>0.92777773931688</v>
       </c>
     </row>
     <row r="18">
@@ -1677,19 +1677,19 @@
         <v>8549</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4577</v>
+        <v>3876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15472</v>
+        <v>15070</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09995299174609235</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05351381675565636</v>
+        <v>0.04531850842747546</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1809087817944496</v>
+        <v>0.1762021889474295</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1698,19 +1698,19 @@
         <v>12161</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6765</v>
+        <v>6686</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20673</v>
+        <v>20325</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1041623349997598</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05794354394232289</v>
+        <v>0.05726938859572273</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1770768878432908</v>
+        <v>0.1740929174108354</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -1719,19 +1719,19 @@
         <v>20709</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13044</v>
+        <v>13410</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30552</v>
+        <v>30974</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1023825281499537</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06448498218516312</v>
+        <v>0.0662954015869105</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1510413009869468</v>
+        <v>0.1531272985986353</v>
       </c>
     </row>
     <row r="19">
@@ -1799,19 +1799,19 @@
         <v>3369</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8816</v>
+        <v>9355</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1087261568261209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02745270524029138</v>
+        <v>0.02725635291140241</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2844796374270191</v>
+        <v>0.301861542298051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7240</v>
+        <v>8038</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04592113992815074</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1367112601210232</v>
+        <v>0.1517950802984174</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1841,19 +1841,19 @@
         <v>5801</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2131</v>
+        <v>2073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12570</v>
+        <v>13177</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06910647134305396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02538887047068834</v>
+        <v>0.02468880578323741</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1497435709693655</v>
+        <v>0.1569669125840918</v>
       </c>
     </row>
     <row r="21">
@@ -1870,19 +1870,19 @@
         <v>25943</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20491</v>
+        <v>20221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29301</v>
+        <v>29259</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8371405991768948</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6612166869549584</v>
+        <v>0.6524877585067888</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9454938198027387</v>
+        <v>0.9441447600549746</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -1891,19 +1891,19 @@
         <v>46373</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40248</v>
+        <v>39519</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50609</v>
+        <v>49825</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8756844529436726</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7600267637776464</v>
+        <v>0.7462640154505278</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9556887546725735</v>
+        <v>0.9408720557001986</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -1912,19 +1912,19 @@
         <v>72316</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>64966</v>
+        <v>64170</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>77869</v>
+        <v>77953</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8614554618896284</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.773899023385704</v>
+        <v>0.7644187775737927</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9276104511467828</v>
+        <v>0.9286037455259634</v>
       </c>
     </row>
     <row r="22">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5403</v>
+        <v>5610</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05413324399698434</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1743406889442717</v>
+        <v>0.1810393461428105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6748</v>
+        <v>6706</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04042256882701784</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1274207173864483</v>
+        <v>0.1266292159421475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1983,19 +1983,19 @@
         <v>3818</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1006</v>
+        <v>1125</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9112</v>
+        <v>9606</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04548405218358122</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01198960063896181</v>
+        <v>0.0133974314213822</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1085482757265562</v>
+        <v>0.1144257532792439</v>
       </c>
     </row>
     <row r="23">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6153</v>
+        <v>6485</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03797183830115883</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1161939129806706</v>
+        <v>0.1224675363843857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6965</v>
+        <v>6432</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02395401458373639</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08297568898520441</v>
+        <v>0.07662285564909692</v>
       </c>
     </row>
     <row r="24">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7030</v>
+        <v>7958</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03292313611946234</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1015067124437779</v>
+        <v>0.1148935084531318</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6907</v>
+        <v>8002</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0177062091257339</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05363438400786874</v>
+        <v>0.06213216068662796</v>
       </c>
     </row>
     <row r="25">
@@ -2142,19 +2142,19 @@
         <v>53609</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45783</v>
+        <v>47203</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57540</v>
+        <v>57577</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9006291117989901</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7691579404440853</v>
+        <v>0.793015085739632</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9666641571536561</v>
+        <v>0.9672824651189448</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -2163,19 +2163,19 @@
         <v>62887</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55634</v>
+        <v>56572</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66209</v>
+        <v>66604</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9079643188359873</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8032535770122103</v>
+        <v>0.8167974696831382</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.955940216381215</v>
+        <v>0.9616420054714562</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -2184,19 +2184,19 @@
         <v>116496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>107809</v>
+        <v>106966</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121873</v>
+        <v>121779</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.904574018787995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8371220101662002</v>
+        <v>0.8305776336026147</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9463313353176305</v>
+        <v>0.9455985026724862</v>
       </c>
     </row>
     <row r="26">
@@ -2213,19 +2213,19 @@
         <v>5915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1984</v>
+        <v>1947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13741</v>
+        <v>12321</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09937088820100988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03333584284634386</v>
+        <v>0.03271753488105528</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2308420595559148</v>
+        <v>0.2069849142603681</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2234,19 +2234,19 @@
         <v>4094</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10306</v>
+        <v>9409</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05911254504455041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01500837590375614</v>
+        <v>0.01491773600905705</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1488013019522044</v>
+        <v>0.1358418452990874</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2255,19 +2255,19 @@
         <v>10009</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4901</v>
+        <v>5010</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17847</v>
+        <v>18939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07771977208627109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03805588442963405</v>
+        <v>0.03889848114545612</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.138579982185059</v>
+        <v>0.1470603075903739</v>
       </c>
     </row>
     <row r="27">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4160</v>
+        <v>4922</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007363041973331668</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03728696201135844</v>
+        <v>0.04412361125115861</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5792</v>
+        <v>5007</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004468149588732666</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02603595636630972</v>
+        <v>0.02250691956980016</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5868</v>
+        <v>5971</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005435025465872978</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01756945374454385</v>
+        <v>0.01787648094089393</v>
       </c>
     </row>
     <row r="29">
@@ -2406,19 +2406,19 @@
         <v>99041</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>90504</v>
+        <v>90741</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104818</v>
+        <v>104574</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8878173190674606</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8112868085046709</v>
+        <v>0.8134150692366534</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9395985043617485</v>
+        <v>0.9374124893768275</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>211</v>
@@ -2427,19 +2427,19 @@
         <v>219469</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>214469</v>
+        <v>214427</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>221473</v>
+        <v>221468</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.986595551233802</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9641194313498674</v>
+        <v>0.963928687586503</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9956022979502579</v>
+        <v>0.9955792879367571</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>304</v>
@@ -2448,19 +2448,19 @@
         <v>318510</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>309311</v>
+        <v>310125</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>324768</v>
+        <v>325202</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9536042419967817</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9260627690992222</v>
+        <v>0.9284995124889946</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9723398199720881</v>
+        <v>0.9736373724521221</v>
       </c>
     </row>
     <row r="30">
@@ -2477,19 +2477,19 @@
         <v>11693</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5975</v>
+        <v>6139</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20247</v>
+        <v>19931</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1048196389592077</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05356302116173962</v>
+        <v>0.05503114797308565</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1814941256964725</v>
+        <v>0.1786653352388062</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6857</v>
+        <v>6845</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008936299177465332</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03082459069938865</v>
+        <v>0.03077090415982871</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2519,19 +2519,19 @@
         <v>13681</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7679</v>
+        <v>7677</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22649</v>
+        <v>22294</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04096073253734526</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02298948538691818</v>
+        <v>0.02298453714354367</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06780975423318795</v>
+        <v>0.06674746496934959</v>
       </c>
     </row>
     <row r="31">
@@ -2599,19 +2599,19 @@
         <v>4053</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12375</v>
+        <v>11064</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02998117399646696</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007620530489896599</v>
+        <v>0.007517306060001109</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09153630683574403</v>
+        <v>0.08183503244947887</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2620,19 +2620,19 @@
         <v>5009</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12482</v>
+        <v>12283</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02542887497985729</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005886407009755122</v>
+        <v>0.005904123878591033</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06336734136308361</v>
+        <v>0.06235503349065123</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2641,19 +2641,19 @@
         <v>9062</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4076</v>
+        <v>3891</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18222</v>
+        <v>18179</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02728161083200138</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01226977301437599</v>
+        <v>0.0117149642273382</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05485622016007002</v>
+        <v>0.05472655400196357</v>
       </c>
     </row>
     <row r="33">
@@ -2670,19 +2670,19 @@
         <v>120660</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>111394</v>
+        <v>110530</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>127007</v>
+        <v>126823</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8924927029617353</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8239576580357699</v>
+        <v>0.8175629366519097</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9394428249777528</v>
+        <v>0.9380852588802384</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>168</v>
@@ -2691,19 +2691,19 @@
         <v>180301</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>170398</v>
+        <v>170545</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>187157</v>
+        <v>187039</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.9152964388467664</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8650240421239892</v>
+        <v>0.8657733898686235</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9501037416769924</v>
+        <v>0.9495038586724335</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>283</v>
@@ -2712,19 +2712,19 @@
         <v>300960</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>288488</v>
+        <v>288307</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>311705</v>
+        <v>311261</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.9060155680421752</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8684687547765018</v>
+        <v>0.8679246501009665</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9383620079013075</v>
+        <v>0.9370245839877788</v>
       </c>
     </row>
     <row r="34">
@@ -2741,19 +2741,19 @@
         <v>10481</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5445</v>
+        <v>5060</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18882</v>
+        <v>18535</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07752612304179768</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04027391532530952</v>
+        <v>0.03743016610728137</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1396667579985966</v>
+        <v>0.1370981014336621</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -2762,19 +2762,19 @@
         <v>10629</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5731</v>
+        <v>5184</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18193</v>
+        <v>18226</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05395695124674824</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02909541339158259</v>
+        <v>0.02631682344896915</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09235625287553348</v>
+        <v>0.09252385827858872</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2783,19 +2783,19 @@
         <v>21110</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13349</v>
+        <v>13341</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>32994</v>
+        <v>32137</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06354934608520348</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04018727942570611</v>
+        <v>0.04016144771845966</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0993248553360883</v>
+        <v>0.09674448836845752</v>
       </c>
     </row>
     <row r="35">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5757</v>
+        <v>5290</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.00531773492662807</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02922367755809858</v>
+        <v>0.02685304172615594</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5301</v>
+        <v>5317</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003153475040619916</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01595875777887041</v>
+        <v>0.01600658158051974</v>
       </c>
     </row>
     <row r="36">
@@ -2879,19 +2879,19 @@
         <v>11056</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01765571628604829</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -2900,19 +2900,19 @@
         <v>17725</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01762263439399746</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -2921,19 +2921,19 @@
         <v>28781</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0176353277792307</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
     </row>
     <row r="37">
@@ -2950,19 +2950,19 @@
         <v>561879</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8972924733567382</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>886</v>
@@ -2971,19 +2971,19 @@
         <v>922050</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9167216021701596</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1426</v>
@@ -2992,19 +2992,19 @@
         <v>1483929</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9092667257563206</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
     </row>
     <row r="38">
@@ -3021,19 +3021,19 @@
         <v>51400</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08208325448973298</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>60</v>
@@ -3042,19 +3042,19 @@
         <v>61201</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06084694943572775</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>111</v>
@@ -3063,19 +3063,19 @@
         <v>112601</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06899523190297009</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
     </row>
     <row r="39">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.002968555867480471</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>5</v>
@@ -3113,19 +3113,19 @@
         <v>4837</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.004808814000115176</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>7</v>
@@ -3134,19 +3134,19 @@
         <v>6696</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.004102714561478631</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
     </row>
     <row r="40">
@@ -3411,19 +3411,19 @@
         <v>3775</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9665</v>
+        <v>8813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04245804812594179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01082128993638856</v>
+        <v>0.010769513295013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1086977491632032</v>
+        <v>0.0991155938893899</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3432,19 +3432,19 @@
         <v>10522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4947</v>
+        <v>4803</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19616</v>
+        <v>20680</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07463950363673542</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03509658352835188</v>
+        <v>0.03407305329998407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1391575131725808</v>
+        <v>0.1467033377011394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3453,19 +3453,19 @@
         <v>14297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8430</v>
+        <v>7716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24705</v>
+        <v>24467</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06219201138844712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03666935738516015</v>
+        <v>0.03356354654611629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1074676275818523</v>
+        <v>0.1064341928910722</v>
       </c>
     </row>
     <row r="5">
@@ -3482,19 +3482,19 @@
         <v>77601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70351</v>
+        <v>70065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82213</v>
+        <v>82575</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.872748930938112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7912088180077814</v>
+        <v>0.7879948028561272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9246164684231546</v>
+        <v>0.9286822589565429</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>108</v>
@@ -3503,19 +3503,19 @@
         <v>121032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111164</v>
+        <v>110572</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129054</v>
+        <v>129498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8585896251372152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.788588578107372</v>
+        <v>0.7843873137933769</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9154993419055178</v>
+        <v>0.918644755461493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -3524,19 +3524,19 @@
         <v>198634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186344</v>
+        <v>185430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208329</v>
+        <v>208783</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8640663149388524</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8106052582708286</v>
+        <v>0.8066260411376166</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9062414021521201</v>
+        <v>0.9082144108721469</v>
       </c>
     </row>
     <row r="6">
@@ -3553,19 +3553,19 @@
         <v>6556</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2916</v>
+        <v>2877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12154</v>
+        <v>12423</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07373709907140022</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03279512983765393</v>
+        <v>0.03235625025728663</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.136694646946027</v>
+        <v>0.13971203304748</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3574,19 +3574,19 @@
         <v>8398</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4117</v>
+        <v>4072</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15590</v>
+        <v>15636</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05957638545940818</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02920371638972405</v>
+        <v>0.02888782190568581</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1105953262764819</v>
+        <v>0.1109233955736003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -3595,19 +3595,19 @@
         <v>14955</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8297</v>
+        <v>8469</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23806</v>
+        <v>24176</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06505361978948322</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03609121574744201</v>
+        <v>0.03683912444938046</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1035570617723271</v>
+        <v>0.1051650145795014</v>
       </c>
     </row>
     <row r="7">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4030</v>
+        <v>6066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01105592186454593</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04532643282345998</v>
+        <v>0.06822620646935612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5149</v>
+        <v>5505</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007194485766641285</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03652349929926099</v>
+        <v>0.0390530286883523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7022</v>
+        <v>6990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008688053883217233</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03054504047379249</v>
+        <v>0.03040717861280096</v>
       </c>
     </row>
     <row r="8">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4826</v>
+        <v>4723</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007317190638331202</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03729424879508066</v>
+        <v>0.03649419379054082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7613</v>
+        <v>7536</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01010016071035968</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0358636522110614</v>
+        <v>0.03550166772877735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -3741,19 +3741,19 @@
         <v>3091</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8144</v>
+        <v>8447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009046104346989461</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002744400093904427</v>
+        <v>0.00272966667092563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02383525053347627</v>
+        <v>0.02472298534892316</v>
       </c>
     </row>
     <row r="9">
@@ -3770,19 +3770,19 @@
         <v>120539</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>113670</v>
+        <v>114044</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125060</v>
+        <v>125438</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9314514287327571</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8783694895039911</v>
+        <v>0.8812611350055943</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9663871825740163</v>
+        <v>0.9693090597815063</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>182</v>
@@ -3791,19 +3791,19 @@
         <v>197557</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>189463</v>
+        <v>188517</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>203976</v>
+        <v>203801</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9307151742355582</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8925836514500246</v>
+        <v>0.8881251571111596</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9609565344517066</v>
+        <v>0.960130841814239</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>301</v>
@@ -3812,19 +3812,19 @@
         <v>318096</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>307420</v>
+        <v>307509</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>325848</v>
+        <v>326563</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9309940323323924</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8997460112947127</v>
+        <v>0.9000059733662417</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.953679829603721</v>
+        <v>0.9557735025399224</v>
       </c>
     </row>
     <row r="10">
@@ -3841,19 +3841,19 @@
         <v>5817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1963</v>
+        <v>1920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11722</v>
+        <v>10832</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04494639408602334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01516518808006011</v>
+        <v>0.01483341044190579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09058403521389621</v>
+        <v>0.08370589345162741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3862,19 +3862,19 @@
         <v>9294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4187</v>
+        <v>4123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15936</v>
+        <v>16596</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0437829008521268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01972503110025322</v>
+        <v>0.01942354294204921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07507800107116666</v>
+        <v>0.07818761387092474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3883,19 +3883,19 @@
         <v>15110</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9085</v>
+        <v>9014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24463</v>
+        <v>23942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04422357661046614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02658934580314761</v>
+        <v>0.02638061257026218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07159630188457201</v>
+        <v>0.07007119311698846</v>
       </c>
     </row>
     <row r="11">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6403</v>
+        <v>6434</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01628498654288839</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04948165167268978</v>
+        <v>0.04971718602805667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3933,19 +3933,19 @@
         <v>3269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9109</v>
+        <v>8918</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01540176420195532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00475346994579341</v>
+        <v>0.004768558379656342</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04291276071250541</v>
+        <v>0.04201483619656311</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3954,19 +3954,19 @@
         <v>5377</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2090</v>
+        <v>2034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11916</v>
+        <v>11970</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01573628671015199</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006117470999706686</v>
+        <v>0.005953470278749155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03487673875993497</v>
+        <v>0.0350335022944791</v>
       </c>
     </row>
     <row r="12">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8365</v>
+        <v>8351</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01803701636760948</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05984413587599489</v>
+        <v>0.0597434517849002</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8104</v>
+        <v>9347</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01080853248421763</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03474387200132607</v>
+        <v>0.0400692316574147</v>
       </c>
     </row>
     <row r="13">
@@ -4050,19 +4050,19 @@
         <v>87502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81408</v>
+        <v>81277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91335</v>
+        <v>90709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9360429197909453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8708457782238416</v>
+        <v>0.8694538199328354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.977044978084413</v>
+        <v>0.9703432601873822</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -4071,19 +4071,19 @@
         <v>124676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115535</v>
+        <v>115247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130879</v>
+        <v>130941</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8919475057757275</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8265567755652888</v>
+        <v>0.8244953090361045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.936327918541901</v>
+        <v>0.9367701409144332</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -4092,19 +4092,19 @@
         <v>212177</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201931</v>
+        <v>201827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>219898</v>
+        <v>220157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9096191086087152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.865694504260823</v>
+        <v>0.8652470072695118</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9427188099222097</v>
+        <v>0.9438307800970808</v>
       </c>
     </row>
     <row r="14">
@@ -4121,19 +4121,19 @@
         <v>4952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1866</v>
+        <v>1902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10634</v>
+        <v>11079</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0529687742420183</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01996006237656578</v>
+        <v>0.0203477036253241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1137521871719895</v>
+        <v>0.1185135714236365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -4142,19 +4142,19 @@
         <v>11599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6117</v>
+        <v>6353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19742</v>
+        <v>19926</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08297767546636743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04376489467891873</v>
+        <v>0.04545335656464831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1412389069634704</v>
+        <v>0.1425525219977264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -4163,19 +4163,19 @@
         <v>16550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9602</v>
+        <v>9880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26190</v>
+        <v>25743</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07095135944837877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04116511585399693</v>
+        <v>0.04235495617397039</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1122788068551627</v>
+        <v>0.1103638545109806</v>
       </c>
     </row>
     <row r="15">
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4627</v>
+        <v>4293</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01098830596703634</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04949453693738671</v>
+        <v>0.04592040488877914</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4669</v>
+        <v>6041</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.00703780239029568</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03340593186478693</v>
+        <v>0.04321955672568973</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6102</v>
+        <v>6972</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008620999458688447</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02616078207316637</v>
+        <v>0.02988864120466842</v>
       </c>
     </row>
     <row r="16">
@@ -4280,19 +4280,19 @@
         <v>4949</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1824</v>
+        <v>1861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10923</v>
+        <v>10588</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02736542122421216</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01008823721601381</v>
+        <v>0.0102917349861881</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06039563357157311</v>
+        <v>0.05854400884684786</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4301,19 +4301,19 @@
         <v>4949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1797</v>
+        <v>1820</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10606</v>
+        <v>11962</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01694630548882476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006154024343562103</v>
+        <v>0.006230998648558482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03631549206279187</v>
+        <v>0.04095925392379519</v>
       </c>
     </row>
     <row r="17">
@@ -4330,19 +4330,19 @@
         <v>96902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86965</v>
+        <v>86647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>103752</v>
+        <v>103546</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8714719385930091</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7821009147477678</v>
+        <v>0.7792411640586892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9330686948724618</v>
+        <v>0.9312212536390769</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -4351,19 +4351,19 @@
         <v>152380</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141927</v>
+        <v>140777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>161204</v>
+        <v>161489</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8425687004697821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7847669600773159</v>
+        <v>0.7784110489600504</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.89136070581858</v>
+        <v>0.8929352535195728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>229</v>
@@ -4372,19 +4372,19 @@
         <v>249283</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>235481</v>
+        <v>235575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>260720</v>
+        <v>260278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.853573324906804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8063154150269164</v>
+        <v>0.8066349611500804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8927350517140873</v>
+        <v>0.8912236343149713</v>
       </c>
     </row>
     <row r="18">
@@ -4401,19 +4401,19 @@
         <v>10209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4289</v>
+        <v>5090</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19234</v>
+        <v>20570</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09180996624385269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03857652659094956</v>
+        <v>0.04577417973337289</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1729774070371027</v>
+        <v>0.1849950636818066</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -4422,19 +4422,19 @@
         <v>19372</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12514</v>
+        <v>12338</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29558</v>
+        <v>30148</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1071168971953143</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06919494101882603</v>
+        <v>0.06821954073545661</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1634354876069514</v>
+        <v>0.1667005731413377</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -4443,19 +4443,19 @@
         <v>29581</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20025</v>
+        <v>20085</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43821</v>
+        <v>42333</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1012889333635076</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06856923031312526</v>
+        <v>0.06877291018303791</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1500485118457138</v>
+        <v>0.1449547503599572</v>
       </c>
     </row>
     <row r="19">
@@ -4472,19 +4472,19 @@
         <v>4083</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10189</v>
+        <v>9364</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03671809516313827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009465770260133188</v>
+        <v>0.009342362822188954</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0916284051734115</v>
+        <v>0.08421737094809487</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4493,19 +4493,19 @@
         <v>4150</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1009</v>
+        <v>1073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9714</v>
+        <v>9265</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02294898111069151</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005580257153205307</v>
+        <v>0.005932410145698916</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05371502620035411</v>
+        <v>0.05122900073302485</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4514,19 +4514,19 @@
         <v>8233</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3200</v>
+        <v>3373</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15432</v>
+        <v>15270</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02819143624086362</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01095731354497447</v>
+        <v>0.01154889556778336</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0528407206278732</v>
+        <v>0.05228557548740245</v>
       </c>
     </row>
     <row r="20">
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10190</v>
+        <v>11141</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05651636791573422</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.185500744219742</v>
+        <v>0.2028046046228275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10070</v>
+        <v>10866</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02106717247617749</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0683337574931433</v>
+        <v>0.07373308014483509</v>
       </c>
     </row>
     <row r="21">
@@ -4610,19 +4610,19 @@
         <v>45643</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38327</v>
+        <v>37412</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50612</v>
+        <v>50394</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8308507063072456</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6976858521644975</v>
+        <v>0.6810243604692247</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9213037919802737</v>
+        <v>0.917347609476029</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>77</v>
@@ -4631,19 +4631,19 @@
         <v>81416</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>73337</v>
+        <v>73786</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>86444</v>
+        <v>86516</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8807757425304698</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7933698015819733</v>
+        <v>0.7982293944514233</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9351696144104996</v>
+        <v>0.9359479952135659</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>120</v>
@@ -4652,19 +4652,19 @@
         <v>127058</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>117549</v>
+        <v>117673</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>134427</v>
+        <v>134546</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8621655701541721</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7976433250715792</v>
+        <v>0.7984810231258218</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9121646476032641</v>
+        <v>0.9129718675813139</v>
       </c>
     </row>
     <row r="22">
@@ -4681,19 +4681,19 @@
         <v>4131</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9636</v>
+        <v>10311</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07519954615723572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01864964548997144</v>
+        <v>0.02057291894910679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1754055063716368</v>
+        <v>0.187693299385459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -4702,19 +4702,19 @@
         <v>9031</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4679</v>
+        <v>4630</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15534</v>
+        <v>16502</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09769671599015786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05061680472350628</v>
+        <v>0.05008872667497952</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1680510108564205</v>
+        <v>0.178523342510271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4723,19 +4723,19 @@
         <v>13162</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7302</v>
+        <v>7091</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21323</v>
+        <v>21278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08931061874833424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04955145273851232</v>
+        <v>0.04811405391511996</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.144691569704065</v>
+        <v>0.1443839660711367</v>
       </c>
     </row>
     <row r="23">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6114</v>
+        <v>6395</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03743337961978447</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1112940711821202</v>
+        <v>0.1164085673251326</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -4773,19 +4773,19 @@
         <v>2986</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8277</v>
+        <v>8143</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03230791487203077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01044991998279356</v>
+        <v>0.0104223398387082</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08954132143683369</v>
+        <v>0.08809218305257586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -4794,19 +4794,19 @@
         <v>5043</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1886</v>
+        <v>1897</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11041</v>
+        <v>10379</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03421849500737301</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01279832825625587</v>
+        <v>0.01287280792147561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07491882951226939</v>
+        <v>0.07042670173627828</v>
       </c>
     </row>
     <row r="24">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6162</v>
+        <v>7015</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02337176448690118</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07509669794502054</v>
+        <v>0.08549135967550649</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6041</v>
+        <v>6193</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.009977463274398453</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03142806843088213</v>
+        <v>0.03222106729701552</v>
       </c>
     </row>
     <row r="25">
@@ -4890,19 +4890,19 @@
         <v>77300</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71211</v>
+        <v>71272</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80225</v>
+        <v>80167</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9420958298123759</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8678840597925169</v>
+        <v>0.8686312338759808</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9777454379169167</v>
+        <v>0.9770430208596766</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>101</v>
@@ -4911,19 +4911,19 @@
         <v>104123</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97872</v>
+        <v>98016</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108118</v>
+        <v>108116</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.945284456824795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8885333113510461</v>
+        <v>0.8898426085645669</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9815541209386487</v>
+        <v>0.9815351453947787</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>174</v>
@@ -4932,19 +4932,19 @@
         <v>181423</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>173106</v>
+        <v>174056</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>186343</v>
+        <v>186625</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9439232241746031</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9006523916269781</v>
+        <v>0.9055946037294715</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9695205408064818</v>
+        <v>0.9709895663444554</v>
       </c>
     </row>
     <row r="26">
@@ -4961,19 +4961,19 @@
         <v>2833</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7821</v>
+        <v>7741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03453240570072287</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01090842132187443</v>
+        <v>0.01066379317407859</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09532287780415626</v>
+        <v>0.09434115743413157</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7421</v>
+        <v>7258</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01847254208752318</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06737502015741501</v>
+        <v>0.06588947321325513</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -5003,19 +5003,19 @@
         <v>4868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1938</v>
+        <v>1815</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11387</v>
+        <v>10589</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02532853704170618</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01008527091574122</v>
+        <v>0.009444841800576987</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05924438072188307</v>
+        <v>0.05509341265728417</v>
       </c>
     </row>
     <row r="27">
@@ -5045,19 +5045,19 @@
         <v>3992</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9994</v>
+        <v>9019</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03624300108768177</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009119838756275299</v>
+        <v>0.009113263604750446</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09072774108960166</v>
+        <v>0.08187583463044028</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -5066,19 +5066,19 @@
         <v>3992</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9202</v>
+        <v>9925</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02077077550929226</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005220288860348529</v>
+        <v>0.005162647544050055</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0478751522594981</v>
+        <v>0.05163786102825485</v>
       </c>
     </row>
     <row r="28">
@@ -5099,19 +5099,19 @@
         <v>5082</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12134</v>
+        <v>13376</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02366687777118741</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004944286106228738</v>
+        <v>0.004912588637408694</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05650659587193655</v>
+        <v>0.06229083926202317</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -5120,19 +5120,19 @@
         <v>6254</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2107</v>
+        <v>2239</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12580</v>
+        <v>12055</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02204885099335082</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007429008974107511</v>
+        <v>0.007892685393480293</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0443483058515569</v>
+        <v>0.0424979388832722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -5141,19 +5141,19 @@
         <v>11336</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5266</v>
+        <v>5240</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20424</v>
+        <v>19904</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02274598061873651</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01056630570253298</v>
+        <v>0.01051461924099108</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04098081032136931</v>
+        <v>0.03993750467982781</v>
       </c>
     </row>
     <row r="29">
@@ -5170,19 +5170,19 @@
         <v>197976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>187681</v>
+        <v>187359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>205093</v>
+        <v>204701</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9219746969185565</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8740331367719508</v>
+        <v>0.8725318932066913</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9551206680206455</v>
+        <v>0.9532970497244074</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>250</v>
@@ -5191,19 +5191,19 @@
         <v>268385</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>258906</v>
+        <v>260576</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>274748</v>
+        <v>274720</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9461652956443458</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9127479573317604</v>
+        <v>0.918636364170807</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9685980692471854</v>
+        <v>0.9684995626726517</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>433</v>
@@ -5212,19 +5212,19 @@
         <v>466360</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>453792</v>
+        <v>454012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>475839</v>
+        <v>475693</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9357427344985325</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9105247118334623</v>
+        <v>0.9109672261540898</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9547612586189586</v>
+        <v>0.9544686909718393</v>
       </c>
     </row>
     <row r="30">
@@ -5241,19 +5241,19 @@
         <v>10775</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5606</v>
+        <v>5650</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18893</v>
+        <v>18521</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05018123176115045</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02610599247189441</v>
+        <v>0.02631203240403188</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08798353450121298</v>
+        <v>0.08625270155863143</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -5262,19 +5262,19 @@
         <v>9016</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4143</v>
+        <v>4087</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16358</v>
+        <v>15312</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03178585336230339</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01460487559967084</v>
+        <v>0.01440932313285041</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05766945090625629</v>
+        <v>0.05398125052612872</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -5283,19 +5283,19 @@
         <v>19792</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13568</v>
+        <v>13544</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>30455</v>
+        <v>30590</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03971153384403359</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02722324635814568</v>
+        <v>0.02717668411627723</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06110744661376302</v>
+        <v>0.06137809796555337</v>
       </c>
     </row>
     <row r="31">
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4418</v>
+        <v>4129</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.004177193549105696</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0205768419599036</v>
+        <v>0.01922649391661848</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4972</v>
+        <v>5425</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001799751038697377</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.009976826160679415</v>
+        <v>0.01088474036110355</v>
       </c>
     </row>
     <row r="32">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6642</v>
+        <v>6786</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.00892019420373151</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0316129662985766</v>
+        <v>0.03230218586589263</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6928</v>
+        <v>7949</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006248068714912221</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01941713183829237</v>
+        <v>0.02227998482748392</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -5421,19 +5421,19 @@
         <v>4103</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10132</v>
+        <v>9574</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007238365245099991</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001838323437326425</v>
+        <v>0.001858100899700712</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01787303351208039</v>
+        <v>0.01688963849035549</v>
       </c>
     </row>
     <row r="33">
@@ -5450,19 +5450,19 @@
         <v>197124</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>188951</v>
+        <v>188656</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>203790</v>
+        <v>202874</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.9382940055323004</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8993907395535037</v>
+        <v>0.8979866912934918</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9700215385715983</v>
+        <v>0.9656617340849762</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>314</v>
@@ -5471,19 +5471,19 @@
         <v>340545</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>331011</v>
+        <v>331405</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>347757</v>
+        <v>347198</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.9544581004014013</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.927737374254287</v>
+        <v>0.9288403136489969</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9746710029280935</v>
+        <v>0.9731037022626429</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>500</v>
@@ -5492,19 +5492,19 @@
         <v>537669</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>525630</v>
+        <v>524673</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>546436</v>
+        <v>547686</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.9484676455633055</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.9272299600808817</v>
+        <v>0.9255424849061407</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9639328653313499</v>
+        <v>0.9661381451822587</v>
       </c>
     </row>
     <row r="34">
@@ -5521,19 +5521,19 @@
         <v>6002</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1967</v>
+        <v>2551</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12074</v>
+        <v>12592</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02857107527189992</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009360657051977696</v>
+        <v>0.01214120305404093</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05747234646011593</v>
+        <v>0.05993655755887559</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -5542,19 +5542,19 @@
         <v>11818</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6030</v>
+        <v>6301</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20331</v>
+        <v>20595</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03312229206098632</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01690105873136545</v>
+        <v>0.017661258831917</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05698221333603253</v>
+        <v>0.05772372024785716</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -5563,19 +5563,19 @@
         <v>17820</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10878</v>
+        <v>10521</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>27222</v>
+        <v>28930</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03143559949612625</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0191890804853138</v>
+        <v>0.0185591646846473</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0480199331016103</v>
+        <v>0.05103359915001944</v>
       </c>
     </row>
     <row r="35">
@@ -5592,19 +5592,19 @@
         <v>5087</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1961</v>
+        <v>1927</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11240</v>
+        <v>10877</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02421472499206816</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009332244684138631</v>
+        <v>0.009172322149529248</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05350289119215824</v>
+        <v>0.05177475462419662</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -5613,19 +5613,19 @@
         <v>3279</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8732</v>
+        <v>10796</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009188786770849994</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0</v>
+        <v>0.003008376963108786</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02447301799421708</v>
+        <v>0.03025849753380538</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -5634,19 +5634,19 @@
         <v>8366</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3829</v>
+        <v>3313</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15888</v>
+        <v>15629</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01475743784863418</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006753636914050501</v>
+        <v>0.005843448390565459</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02802775393463957</v>
+        <v>0.02757047433774632</v>
       </c>
     </row>
     <row r="36">
@@ -5667,19 +5667,19 @@
         <v>16701</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01695822363507884</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>25</v>
@@ -5688,19 +5688,19 @@
         <v>28619</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01886704668329083</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>40</v>
@@ -5709,19 +5709,19 @@
         <v>45320</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>32397</v>
+        <v>32334</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>60039</v>
+        <v>62150</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01811563135400676</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01295007627918228</v>
+        <v>0.01292480200772786</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02399932860244533</v>
+        <v>0.0248431160519951</v>
       </c>
     </row>
     <row r="37">
@@ -5738,19 +5738,19 @@
         <v>900587</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.914483382701484</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1286</v>
@@ -5759,19 +5759,19 @@
         <v>1390114</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9164193912481641</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2136</v>
@@ -5780,19 +5780,19 @@
         <v>2290701</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2259532</v>
+        <v>2261907</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2316517</v>
+        <v>2317549</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9156572742457719</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9031981677768497</v>
+        <v>0.9041474519593994</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9259768071301965</v>
+        <v>0.9263892854910537</v>
       </c>
     </row>
     <row r="38">
@@ -5809,19 +5809,19 @@
         <v>51276</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05206670902568295</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>78</v>
@@ -5830,19 +5830,19 @@
         <v>80562</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05310987740647508</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>128</v>
@@ -5851,19 +5851,19 @@
         <v>131838</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>111535</v>
+        <v>111848</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>157603</v>
+        <v>157537</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05269923027337079</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04458375687105001</v>
+        <v>0.04470865904178326</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06299831746736763</v>
+        <v>0.06297178081527088</v>
       </c>
     </row>
     <row r="39">
@@ -5880,19 +5880,19 @@
         <v>16241</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01649168463775417</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>19</v>
@@ -5901,19 +5901,19 @@
         <v>19675</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01297031741754995</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>35</v>
@@ -5922,19 +5922,19 @@
         <v>35916</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>25626</v>
+        <v>25291</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>48249</v>
+        <v>47913</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01435651678882139</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.010243524298442</v>
+        <v>0.01010954617822022</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01928663693789436</v>
+        <v>0.01915232417262015</v>
       </c>
     </row>
     <row r="40">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6260</v>
+        <v>4788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01403213456961614</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0847725301988117</v>
+        <v>0.06483686996044534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6220,19 +6220,19 @@
         <v>2907</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7680</v>
+        <v>8806</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02943793856469412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009375627472442033</v>
+        <v>0.009422578170900097</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07777218916349406</v>
+        <v>0.08918159163166234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6241,19 +6241,19 @@
         <v>3943</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9040</v>
+        <v>9421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02284616172839736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005895491376999558</v>
+        <v>0.005909657202187659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05237696642579309</v>
+        <v>0.05458772032672284</v>
       </c>
     </row>
     <row r="5">
@@ -6270,19 +6270,19 @@
         <v>64051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56715</v>
+        <v>56175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68967</v>
+        <v>68815</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8673406020791703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7679922001229956</v>
+        <v>0.7606890189827124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9339063788743583</v>
+        <v>0.9318464377934205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -6291,19 +6291,19 @@
         <v>74630</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65923</v>
+        <v>65157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82415</v>
+        <v>82039</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.755788987128469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6676183645062362</v>
+        <v>0.6598609829427335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8346358359299586</v>
+        <v>0.8308253881808142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -6312,19 +6312,19 @@
         <v>138680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127029</v>
+        <v>127215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147910</v>
+        <v>147667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8035192679835582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7360089986435039</v>
+        <v>0.7370919345609094</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8569978322476228</v>
+        <v>0.8555885127775944</v>
       </c>
     </row>
     <row r="6">
@@ -6341,19 +6341,19 @@
         <v>8851</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4692</v>
+        <v>4657</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16256</v>
+        <v>16886</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1198528770917598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06353935913859066</v>
+        <v>0.06305791500254607</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2201302814448151</v>
+        <v>0.2286611666134044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -6362,19 +6362,19 @@
         <v>18301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11094</v>
+        <v>11473</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26608</v>
+        <v>26725</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1853346134332079</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1123489198517767</v>
+        <v>0.1161899262671606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2694679352157813</v>
+        <v>0.2706495748848173</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -6383,19 +6383,19 @@
         <v>27151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18797</v>
+        <v>18507</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37197</v>
+        <v>37171</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1573165370670569</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1089101277867941</v>
+        <v>0.1072297917415725</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2155188357557926</v>
+        <v>0.2153732228230541</v>
       </c>
     </row>
     <row r="7">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5241</v>
+        <v>4736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01280652082906996</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07097035594070156</v>
+        <v>0.0641350647564643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6433,19 +6433,19 @@
         <v>3927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8841</v>
+        <v>9197</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03976633196296261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009973928403488598</v>
+        <v>0.01030835450285163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08953873410872076</v>
+        <v>0.09314210997834686</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6454,19 +6454,19 @@
         <v>4872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1920</v>
+        <v>1884</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11338</v>
+        <v>11827</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02823087048363269</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01112422084727603</v>
+        <v>0.01091418358129345</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06569401886632757</v>
+        <v>0.0685240029628268</v>
       </c>
     </row>
     <row r="8">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6628</v>
+        <v>7296</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02627668379121189</v>
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08293611969949394</v>
+        <v>0.09128564855827578</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -6511,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7901</v>
+        <v>7238</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01739009551287812</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05892401262701884</v>
+        <v>0.05397678737898011</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -6529,19 +6529,19 @@
         <v>4432</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11093</v>
+        <v>11404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02070880465554861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005115348530241905</v>
+        <v>0.005119088240687895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05183289038406903</v>
+        <v>0.0532890203288091</v>
       </c>
     </row>
     <row r="9">
@@ -6558,19 +6558,19 @@
         <v>71523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65063</v>
+        <v>64574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>76686</v>
+        <v>75850</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8949049645092829</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8140795899286237</v>
+        <v>0.8079683211268619</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9595044600300242</v>
+        <v>0.94904445119632</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>119</v>
@@ -6579,19 +6579,19 @@
         <v>122718</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>115351</v>
+        <v>115315</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>128106</v>
+        <v>128048</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9152141208524786</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8602731582107779</v>
+        <v>0.8600022549852608</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.955391952953811</v>
+        <v>0.9549600368407054</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>186</v>
@@ -6600,19 +6600,19 @@
         <v>194240</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>184923</v>
+        <v>184298</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>201727</v>
+        <v>201637</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9076296372773347</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8640919962963777</v>
+        <v>0.8611719907847133</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9426129040913148</v>
+        <v>0.9421960427387585</v>
       </c>
     </row>
     <row r="10">
@@ -6629,19 +6629,19 @@
         <v>3117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8345</v>
+        <v>7600</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0389951711962454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01252708239839047</v>
+        <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1044099450774029</v>
+        <v>0.09508920858421986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6650,19 +6650,19 @@
         <v>9037</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4053</v>
+        <v>4026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15277</v>
+        <v>15976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06739578363464338</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03022757766140396</v>
+        <v>0.03002363355851055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.113931227485286</v>
+        <v>0.1191435568076008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -6671,19 +6671,19 @@
         <v>12153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6082</v>
+        <v>6952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20068</v>
+        <v>19994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05678953417144385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0284197616019156</v>
+        <v>0.03248379141044051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09377411121368115</v>
+        <v>0.09342498067972679</v>
       </c>
     </row>
     <row r="11">
@@ -6700,19 +6700,19 @@
         <v>3183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8333</v>
+        <v>8643</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0398231805032598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01264008699035699</v>
+        <v>0.01257881115015386</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1042655458903942</v>
+        <v>0.1081418474236567</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -6734,19 +6734,19 @@
         <v>3183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8665</v>
+        <v>8790</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01487202389567281</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004755059954922973</v>
+        <v>0.004736934969757862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04048783869686683</v>
+        <v>0.04107439402469487</v>
       </c>
     </row>
     <row r="12">
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5005</v>
+        <v>4058</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01663791127789117</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0835814547750635</v>
+        <v>0.06777676282646722</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6447</v>
+        <v>6708</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02335106691312392</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08032423534390215</v>
+        <v>0.08358369193756876</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -6809,19 +6809,19 @@
         <v>2870</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>916</v>
+        <v>887</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8092</v>
+        <v>7620</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02048266599181093</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006539115025014581</v>
+        <v>0.006331633700324746</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05774638186123551</v>
+        <v>0.05437594352491826</v>
       </c>
     </row>
     <row r="13">
@@ -6838,19 +6838,19 @@
         <v>55296</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50512</v>
+        <v>49705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58114</v>
+        <v>58093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9234941565323076</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8435931609381843</v>
+        <v>0.8301244108093488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.97056049555822</v>
+        <v>0.9702073972497813</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -6859,19 +6859,19 @@
         <v>69756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62524</v>
+        <v>62669</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74853</v>
+        <v>74943</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8691477375016891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7790372655828551</v>
+        <v>0.7808488226158815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.932651059499789</v>
+        <v>0.9337729356776645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -6880,19 +6880,19 @@
         <v>125052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115739</v>
+        <v>116356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130570</v>
+        <v>131326</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8923689060381881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8259102857960694</v>
+        <v>0.8303163842263505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9317476363187771</v>
+        <v>0.9371402396132411</v>
       </c>
     </row>
     <row r="14">
@@ -6909,19 +6909,19 @@
         <v>2665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7082</v>
+        <v>7747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04450440603514742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0142193085755744</v>
+        <v>0.01420350089300694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1182724270765907</v>
+        <v>0.129388121393022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -6930,19 +6930,19 @@
         <v>8628</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4076</v>
+        <v>3881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16063</v>
+        <v>15482</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.107501195585187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05078365040637395</v>
+        <v>0.04835642624615485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2001466464968827</v>
+        <v>0.1928979174229192</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -6951,19 +6951,19 @@
         <v>11293</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6294</v>
+        <v>6204</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19402</v>
+        <v>19426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08058389186043451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0449126175240523</v>
+        <v>0.04427388492570985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1384549829903352</v>
+        <v>0.1386209916480443</v>
       </c>
     </row>
     <row r="15">
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4661</v>
+        <v>4663</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01536352615465381</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0778500216843567</v>
+        <v>0.07787285563744011</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5550</v>
+        <v>4173</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.006564536109566486</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0396015371816404</v>
+        <v>0.02978138736643773</v>
       </c>
     </row>
     <row r="16">
@@ -7060,19 +7060,19 @@
         <v>2863</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7227</v>
+        <v>7895</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02415851634740353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007344653878515495</v>
+        <v>0.007379861101451985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06097707141616122</v>
+        <v>0.06661745709943991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -7081,19 +7081,19 @@
         <v>2863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7853</v>
+        <v>8020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01611007150719408</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004919653779470231</v>
+        <v>0.004950119862261601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04418479819521147</v>
+        <v>0.04512662507636585</v>
       </c>
     </row>
     <row r="17">
@@ -7110,19 +7110,19 @@
         <v>53360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47502</v>
+        <v>47287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56424</v>
+        <v>56981</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.901197734655082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8022671581054669</v>
+        <v>0.7986362912613149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9529490397252496</v>
+        <v>0.9623484152254349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -7131,19 +7131,19 @@
         <v>107705</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100676</v>
+        <v>99098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112748</v>
+        <v>112646</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9087618322651705</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8494610941265724</v>
+        <v>0.8361389607268165</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9513193335645818</v>
+        <v>0.95045788533611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>152</v>
@@ -7152,19 +7152,19 @@
         <v>161065</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152308</v>
+        <v>151371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>167301</v>
+        <v>167266</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.906241842150492</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8569736485006811</v>
+        <v>0.85170204243007</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9413309757860954</v>
+        <v>0.9411353326645771</v>
       </c>
     </row>
     <row r="18">
@@ -7181,19 +7181,19 @@
         <v>4850</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1886</v>
+        <v>1922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10149</v>
+        <v>10165</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08190820233252173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03186059719528866</v>
+        <v>0.03245775180194307</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1714113777843657</v>
+        <v>0.1716688621990438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -7202,19 +7202,19 @@
         <v>5913</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2377</v>
+        <v>2716</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12323</v>
+        <v>12979</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04989510493212639</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02005668582286169</v>
+        <v>0.02291604127692591</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1039734245589571</v>
+        <v>0.1095075204002478</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -7223,19 +7223,19 @@
         <v>10763</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5679</v>
+        <v>5789</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17824</v>
+        <v>18244</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06056031486829147</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03195103873149289</v>
+        <v>0.03257358649423504</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1002869408907276</v>
+        <v>0.1026521808657006</v>
       </c>
     </row>
     <row r="19">
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5177</v>
+        <v>6548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01689406301239623</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08744223888444413</v>
+        <v>0.1105928509198406</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7252</v>
+        <v>7202</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01718454645529956</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06118748174322864</v>
+        <v>0.06076521730521844</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -7294,19 +7294,19 @@
         <v>3037</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8025</v>
+        <v>8217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0170877714740225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0</v>
+        <v>0.005187606827327816</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04515515876325307</v>
+        <v>0.04623121231691222</v>
       </c>
     </row>
     <row r="20">
@@ -7327,19 +7327,19 @@
         <v>4519</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1017</v>
+        <v>1584</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10937</v>
+        <v>10955</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06238517329609507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0140464408347107</v>
+        <v>0.02186736563133246</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1509965241726646</v>
+        <v>0.1512434856389243</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -7361,19 +7361,19 @@
         <v>4519</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1620</v>
+        <v>1017</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11542</v>
+        <v>11618</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0288961127051861</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01035697309191713</v>
+        <v>0.006504302261416277</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07381101172149021</v>
+        <v>0.07429863532527337</v>
       </c>
     </row>
     <row r="21">
@@ -7390,19 +7390,19 @@
         <v>67911</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61493</v>
+        <v>61475</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71413</v>
+        <v>70846</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9376148267039049</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8490034758273354</v>
+        <v>0.8487565143610754</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9859535591652893</v>
+        <v>0.9781326343686674</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -7411,19 +7411,19 @@
         <v>77034</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69966</v>
+        <v>70007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>81276</v>
+        <v>80700</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9177076487829091</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8335076668039183</v>
+        <v>0.8339972220347548</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9682348311152021</v>
+        <v>0.961379886994752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>149</v>
@@ -7432,19 +7432,19 @@
         <v>144946</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>137364</v>
+        <v>136918</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>150400</v>
+        <v>150275</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9269284303637675</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8784466431013827</v>
+        <v>0.8755888320209151</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9618075910480971</v>
+        <v>0.96100696398032</v>
       </c>
     </row>
     <row r="22">
@@ -7474,19 +7474,19 @@
         <v>5953</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1960</v>
+        <v>2561</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12177</v>
+        <v>12659</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07092306488784317</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02335037150568338</v>
+        <v>0.03050521988663363</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1450648088616483</v>
+        <v>0.1508110897172331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -7495,19 +7495,19 @@
         <v>5953</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12166</v>
+        <v>12523</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03807229653829652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01491930606384371</v>
+        <v>0.01494542366140998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07780459577780614</v>
+        <v>0.08008460333029017</v>
       </c>
     </row>
     <row r="23">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4842</v>
+        <v>4720</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01136928632924768</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05768443384157939</v>
+        <v>0.05622620537158892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4808</v>
+        <v>5758</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006103160392749941</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03074754298461187</v>
+        <v>0.03682470037673633</v>
       </c>
     </row>
     <row r="24">
@@ -7591,19 +7591,19 @@
         <v>2858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>767</v>
+        <v>811</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7502</v>
+        <v>9306</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04553612968203086</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01221362752619377</v>
+        <v>0.01291998237612527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1195204668166925</v>
+        <v>0.1482773316045699</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5787</v>
+        <v>6419</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01800702925461716</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08273749025618755</v>
+        <v>0.09178005152576724</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -7633,19 +7633,19 @@
         <v>4117</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1182</v>
+        <v>970</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10667</v>
+        <v>10257</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0310272186526781</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008905498868870045</v>
+        <v>0.007311255150787163</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08038179143170812</v>
+        <v>0.07729354995173138</v>
       </c>
     </row>
     <row r="25">
@@ -7662,19 +7662,19 @@
         <v>58558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52979</v>
+        <v>52126</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61647</v>
+        <v>61451</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9329842289338941</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8440919842404788</v>
+        <v>0.8305133464924679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9821960109972253</v>
+        <v>0.9790760106357146</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -7683,19 +7683,19 @@
         <v>66370</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60321</v>
+        <v>60254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68802</v>
+        <v>68816</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9489515951592605</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8624733317656685</v>
+        <v>0.8615041712729714</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9837293298853657</v>
+        <v>0.9839269625615144</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -7704,19 +7704,19 @@
         <v>124927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>117186</v>
+        <v>117091</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>129231</v>
+        <v>129299</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9413996545141007</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8830656271722411</v>
+        <v>0.8823496385543967</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.973832317204294</v>
+        <v>0.9743426311209802</v>
       </c>
     </row>
     <row r="26">
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5668</v>
+        <v>5617</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01752181410917401</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09030724505804298</v>
+        <v>0.08950149617589775</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5884</v>
+        <v>6093</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0170699007253343</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08413114493623776</v>
+        <v>0.08712185346775009</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7923</v>
+        <v>7162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01728363810715054</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05970513280458136</v>
+        <v>0.05396598875914039</v>
       </c>
     </row>
     <row r="27">
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8012</v>
+        <v>6954</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02147964138407508</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1276470178867719</v>
+        <v>0.1107966082852729</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7063</v>
+        <v>7217</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01597147486078795</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1009830200497405</v>
+        <v>0.1031871223013337</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8584</v>
+        <v>8409</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01857662251384532</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06468298130080602</v>
+        <v>0.06336544331785002</v>
       </c>
     </row>
     <row r="28">
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7635</v>
+        <v>7724</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0178041942321279</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06234441157352474</v>
+        <v>0.06306597894101443</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -7900,19 +7900,19 @@
         <v>3096</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8800</v>
+        <v>8357</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01519547378489197</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004764426318564092</v>
+        <v>0.004720476146794968</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04318795570884759</v>
+        <v>0.04101333029948038</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -7921,19 +7921,19 @@
         <v>5277</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2056</v>
+        <v>2034</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12397</v>
+        <v>11723</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01617482094916781</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006303356654470529</v>
+        <v>0.006235650053087528</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03800282054337981</v>
+        <v>0.03593565576774729</v>
       </c>
     </row>
     <row r="29">
@@ -7950,19 +7950,19 @@
         <v>111641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>103153</v>
+        <v>103923</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>117020</v>
+        <v>117128</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9115988834618812</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8422932794673107</v>
+        <v>0.8485773366960293</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9555187559395264</v>
+        <v>0.9564010399273511</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>169</v>
@@ -7971,19 +7971,19 @@
         <v>173256</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>161614</v>
+        <v>162045</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183037</v>
+        <v>183275</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8503243950237969</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7931872701409229</v>
+        <v>0.7953019115251669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8983267726455572</v>
+        <v>0.899498065362262</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>266</v>
@@ -7992,19 +7992,19 @@
         <v>284898</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>271761</v>
+        <v>271421</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>296162</v>
+        <v>296498</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8733276250394442</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8330571835172402</v>
+        <v>0.832016145615044</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9078577880080869</v>
+        <v>0.9088866210291332</v>
       </c>
     </row>
     <row r="30">
@@ -8021,19 +8021,19 @@
         <v>6470</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2330</v>
+        <v>3106</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13388</v>
+        <v>13217</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05282898114319041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01902695850465954</v>
+        <v>0.02535869596655682</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1093155639412115</v>
+        <v>0.1079202741780807</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -8042,19 +8042,19 @@
         <v>27401</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17892</v>
+        <v>17597</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>38392</v>
+        <v>38898</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1344801311913112</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08781043476448093</v>
+        <v>0.08636232526914014</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1884218043594938</v>
+        <v>0.1909097034785629</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -8063,19 +8063,19 @@
         <v>33871</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23574</v>
+        <v>23750</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>45994</v>
+        <v>47416</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.103827240673964</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07226365436628322</v>
+        <v>0.07280485476691324</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1409917718581281</v>
+        <v>0.1453507372737241</v>
       </c>
     </row>
     <row r="31">
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8042</v>
+        <v>6653</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0177679411628005</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0656640480014969</v>
+        <v>0.05432388878862054</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8256</v>
+        <v>7772</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00667031333742401</v>
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02530843321782764</v>
+        <v>0.02382370435648554</v>
       </c>
     </row>
     <row r="32">
@@ -8159,19 +8159,19 @@
         <v>3929</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1134</v>
+        <v>1098</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9887</v>
+        <v>9781</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01737227327484179</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005012611655528102</v>
+        <v>0.004853209517405497</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04371910715046464</v>
+        <v>0.04325191631031412</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -8180,19 +8180,19 @@
         <v>8208</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3653</v>
+        <v>3816</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16070</v>
+        <v>16746</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02550982810180555</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01135254156602396</v>
+        <v>0.01186002517393821</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04994541559380498</v>
+        <v>0.05204792641678971</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>11</v>
@@ -8201,19 +8201,19 @@
         <v>12136</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6362</v>
+        <v>5961</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21103</v>
+        <v>21801</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02215094016953805</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01161096521881208</v>
+        <v>0.01087980388016824</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03851582083869385</v>
+        <v>0.039791431766123</v>
       </c>
     </row>
     <row r="33">
@@ -8230,19 +8230,19 @@
         <v>209311</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>200335</v>
+        <v>200014</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>216451</v>
+        <v>215863</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.9255403857886036</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8858522487635383</v>
+        <v>0.8844319116507184</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9571105094389105</v>
+        <v>0.9545114831301458</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>268</v>
@@ -8251,19 +8251,19 @@
         <v>282814</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>269156</v>
+        <v>267914</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>293270</v>
+        <v>293853</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8790073698044492</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8365594843638551</v>
+        <v>0.832697934186167</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9115064271068277</v>
+        <v>0.9133191027552998</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>466</v>
@@ -8272,19 +8272,19 @@
         <v>492125</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>475831</v>
+        <v>475887</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>504660</v>
+        <v>504781</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8982145136166531</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8684765921134405</v>
+        <v>0.8685790137760451</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9210944206805971</v>
+        <v>0.9213147393485028</v>
       </c>
     </row>
     <row r="34">
@@ -8301,19 +8301,19 @@
         <v>12044</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6278</v>
+        <v>6821</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19838</v>
+        <v>20901</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05325494818141596</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0277610380916682</v>
+        <v>0.03016188687213876</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08772018862982965</v>
+        <v>0.09241942624995839</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>27</v>
@@ -8322,19 +8322,19 @@
         <v>28220</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19889</v>
+        <v>18948</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>40272</v>
+        <v>41290</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08771021879162838</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06181730168149903</v>
+        <v>0.05889197477038195</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1251694627090469</v>
+        <v>0.1283324952272436</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>39</v>
@@ -8343,19 +8343,19 @@
         <v>40264</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29291</v>
+        <v>29112</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54025</v>
+        <v>52807</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07348833087608675</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05346185954149753</v>
+        <v>0.05313535072428782</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09860467275389113</v>
+        <v>0.09638240111074103</v>
       </c>
     </row>
     <row r="35">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4405</v>
+        <v>3831</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003832392755138594</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0194770531808187</v>
+        <v>0.01694128582954178</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8940</v>
+        <v>8318</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007772583302116877</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02778548959147624</v>
+        <v>0.02585168650790259</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -8414,19 +8414,19 @@
         <v>3367</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10057</v>
+        <v>9246</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006146215337722117</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001576770209556958</v>
+        <v>0.001573119492149845</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01835582951957101</v>
+        <v>0.01687485223724004</v>
       </c>
     </row>
     <row r="36">
@@ -8447,19 +8447,19 @@
         <v>17618</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10465</v>
+        <v>10768</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27832</v>
+        <v>27826</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02328403183368698</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01382992081206635</v>
+        <v>0.01423062128688245</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03678226731994452</v>
+        <v>0.03677431033770811</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -8468,19 +8468,19 @@
         <v>22539</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13955</v>
+        <v>14363</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>35003</v>
+        <v>33846</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0202874622297828</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01256062562535054</v>
+        <v>0.01292774132032781</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03150654271741368</v>
+        <v>0.03046447324392034</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -8489,19 +8489,19 @@
         <v>40157</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28684</v>
+        <v>28037</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>55620</v>
+        <v>54522</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0215015043184581</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01535820840389223</v>
+        <v>0.01501167811580892</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02978062872938546</v>
+        <v>0.02919271787552177</v>
       </c>
     </row>
     <row r="37">
@@ -8518,19 +8518,19 @@
         <v>691650</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>675533</v>
+        <v>675585</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>707124</v>
+        <v>706225</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9140745167195761</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8927742835642811</v>
+        <v>0.8928430151555935</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9345250465738693</v>
+        <v>0.9333362902076244</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>952</v>
@@ -8539,19 +8539,19 @@
         <v>974281</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>949728</v>
+        <v>951573</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>995864</v>
+        <v>996567</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8769543746595749</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8548539657877792</v>
+        <v>0.8565147581687871</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8963810668211033</v>
+        <v>0.8970140388982013</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1604</v>
@@ -8560,19 +8560,19 @@
         <v>1665932</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1637930</v>
+        <v>1635951</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1692608</v>
+        <v>1691714</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8919933761697458</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8769999626247312</v>
+        <v>0.875940457874665</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.906276224755095</v>
+        <v>0.9057977609822012</v>
       </c>
     </row>
     <row r="38">
@@ -8589,19 +8589,19 @@
         <v>39095</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>28279</v>
+        <v>27731</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>51719</v>
+        <v>52872</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05166760908736998</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03737351098629013</v>
+        <v>0.03664899180784512</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.06835132245620834</v>
+        <v>0.06987524625184713</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>100</v>
@@ -8610,19 +8610,19 @@
         <v>104647</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>85205</v>
+        <v>87318</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>126663</v>
+        <v>127213</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09419304000257224</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07669328221031403</v>
+        <v>0.07859561877848308</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1140096308811253</v>
+        <v>0.114505053730915</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>139</v>
@@ -8631,19 +8631,19 @@
         <v>143742</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>121581</v>
+        <v>122067</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>168694</v>
+        <v>169550</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07696411833733068</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06509827507816755</v>
+        <v>0.06535864292016802</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09032429542492347</v>
+        <v>0.09078226656608492</v>
       </c>
     </row>
     <row r="39">
@@ -8660,19 +8660,19 @@
         <v>10440</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>5731</v>
+        <v>5091</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>19710</v>
+        <v>17869</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01379671260441581</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.007573964417279927</v>
+        <v>0.006727591635546009</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02604876820563551</v>
+        <v>0.02361525492487175</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>10</v>
@@ -8681,19 +8681,19 @@
         <v>10536</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>5216</v>
+        <v>5148</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>18758</v>
+        <v>17985</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.009483059478946494</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004694900021760999</v>
+        <v>0.004633331194513062</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01688407625455432</v>
+        <v>0.0161882239487185</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>20</v>
@@ -8702,19 +8702,19 @@
         <v>20975</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>12704</v>
+        <v>13000</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>32170</v>
+        <v>31559</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01123071000688428</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.006802257505784819</v>
+        <v>0.006960423582459529</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01722464321052957</v>
+        <v>0.01689773542554711</v>
       </c>
     </row>
     <row r="40">
